--- a/hard/GPduino-T/GPduino-T_BOM.xlsx
+++ b/hard/GPduino-T/GPduino-T_BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="BOM" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="131">
   <si>
     <t>Qty</t>
     <phoneticPr fontId="4"/>
@@ -218,10 +218,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>C1,3</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>220u10V</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -238,10 +234,6 @@
   </si>
   <si>
     <t>P-10419</t>
-  </si>
-  <si>
-    <t>C2,4-10,13</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>C11,12</t>
@@ -354,14 +346,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>R2-5,10,11</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>R6,7</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>150(1608)</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -374,14 +358,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>R8,9,12-17</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>R18-20</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>RS</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -448,25 +424,6 @@
   </si>
   <si>
     <t>R-06101</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ON Semiconductor</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>LDO, 3.3V-1A, SOT-223型</t>
-    <rPh sb="21" eb="22">
-      <t>ガタ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>NCP1117LP ST33T3G</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>802-2137</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -539,11 +496,103 @@
     <t>Gpduino-T BOM</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>Murata</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DCDCコンバータ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>R3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>R4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.5k(1608)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>680(1608)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RS</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>R2,5-7,12,13</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>R8,9</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>R10,11,14-19</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>R20-22</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>566-872</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>566-361</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1608型、±0.1%</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>M-06206</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>VR1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>731-2883</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>EVM3YSX50B14</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Panasonic</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>半固定抵抗器 10kΩ, 0.15W</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OKL-T/3-W12N</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C1,4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C2,3,5-10,13</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -692,7 +741,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -766,6 +815,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -800,6 +850,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -975,10 +1026,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -1375,7 +1428,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="14.25">
       <c r="A1" s="4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1">
@@ -1421,16 +1474,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3">
@@ -1450,7 +1503,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1458,7 +1511,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>14</v>
@@ -1495,13 +1548,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>15</v>
@@ -1524,7 +1577,7 @@
         <v>13</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1532,19 +1585,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -1553,7 +1606,7 @@
         <v>21</v>
       </c>
       <c r="I7" s="6">
-        <f t="shared" ref="I7:I26" si="1">G7*H7</f>
+        <f t="shared" ref="I7:I29" si="1">G7*H7</f>
         <v>0</v>
       </c>
       <c r="J7" s="6">
@@ -1571,16 +1624,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="6">
@@ -1600,7 +1653,7 @@
         <v>13</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1608,10 +1661,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
@@ -1620,7 +1673,7 @@
         <v>36</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -1647,16 +1700,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>35</v>
@@ -1686,7 +1739,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>10</v>
@@ -1695,7 +1748,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>35</v>
@@ -1725,16 +1778,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="3">
@@ -1754,7 +1807,7 @@
         <v>13</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1762,16 +1815,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="3">
@@ -1791,7 +1844,7 @@
         <v>13</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1802,7 +1855,7 @@
         <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>9</v>
@@ -1829,7 +1882,7 @@
         <v>13</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1837,7 +1890,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>16</v>
@@ -1857,7 +1910,7 @@
         <v>0.2</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" ref="I15" si="3">G15*H15</f>
+        <f t="shared" ref="I15:I17" si="3">G15*H15</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="J15" s="3">
@@ -1875,36 +1928,36 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="3">
-        <v>2</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0.2</v>
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>57.6</v>
       </c>
       <c r="I16" s="6">
         <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="J16" s="6">
-        <v>2500</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>96</v>
+        <v>57.6</v>
+      </c>
+      <c r="J16" s="3">
+        <v>5</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1912,36 +1965,36 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="3">
-        <v>8</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I17" s="6">
-        <f t="shared" ref="I17:I18" si="4">G17*H17</f>
-        <v>1.6</v>
-      </c>
-      <c r="J17" s="6">
-        <v>2500</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>97</v>
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>57.6</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="3"/>
+        <v>57.6</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1949,29 +2002,27 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="F18" s="8"/>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="6">
         <v>0.2</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.4</v>
       </c>
       <c r="J18" s="6">
         <v>2500</v>
@@ -1980,7 +2031,7 @@
         <v>13</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1988,36 +2039,36 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>40</v>
+        <v>117</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H19" s="6">
-        <v>20</v>
-      </c>
-      <c r="I19" s="3">
-        <f>G19*H19</f>
-        <v>40</v>
-      </c>
-      <c r="J19" s="3">
-        <v>5</v>
-      </c>
-      <c r="K19" s="3" t="s">
+        <v>0.2</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" ref="I19:I20" si="4">G19*H19</f>
+        <v>1.6</v>
+      </c>
+      <c r="J19" s="6">
+        <v>2500</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L19" s="9" t="s">
-        <v>39</v>
+      <c r="L19" s="11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2025,36 +2076,38 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6">
-        <v>1</v>
+        <v>118</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="6">
-        <v>41.28</v>
+        <v>0.2</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="1"/>
-        <v>41.28</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="J20" s="6">
-        <v>25</v>
+        <v>2500</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>101</v>
+        <v>13</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2062,36 +2115,36 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>25</v>
+        <v>72</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="F21" s="8"/>
       <c r="G21" s="3">
         <v>2</v>
       </c>
-      <c r="H21" s="3">
-        <v>306</v>
+      <c r="H21" s="6">
+        <v>20</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="1"/>
-        <v>612</v>
+        <f>G21*H21</f>
+        <v>40</v>
       </c>
       <c r="J21" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2099,27 +2152,27 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>84</v>
+        <v>18</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6">
         <v>1</v>
       </c>
       <c r="H22" s="6">
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="I22" s="6">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="J22" s="6">
         <v>1</v>
@@ -2127,8 +2180,8 @@
       <c r="K22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="11" t="s">
-        <v>112</v>
+      <c r="L22" s="13" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2136,36 +2189,36 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>86</v>
+        <v>75</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" s="3">
-        <v>700</v>
+        <v>306</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="1"/>
-        <v>700</v>
+        <v>612</v>
       </c>
       <c r="J23" s="3">
         <v>1</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>110</v>
+        <v>24</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2173,36 +2226,36 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6">
+        <v>210</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="J24" s="6">
+        <v>1</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" s="6">
-        <v>32.6</v>
-      </c>
-      <c r="I24" s="6">
-        <f t="shared" ref="I24:I25" si="5">G24*H24</f>
-        <v>32.6</v>
-      </c>
-      <c r="J24" s="6">
-        <v>10</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2210,82 +2263,193 @@
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>108</v>
+        <v>43</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3">
         <v>1</v>
       </c>
-      <c r="H25" s="6">
-        <v>111</v>
-      </c>
-      <c r="I25" s="6">
-        <f t="shared" si="5"/>
-        <v>111</v>
-      </c>
-      <c r="J25" s="6">
-        <v>5</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>80</v>
+      <c r="H25" s="3">
+        <v>700</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="8">
         <v>23</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="6">
+        <v>32.6</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" ref="I26:I28" si="5">G26*H26</f>
+        <v>32.6</v>
+      </c>
+      <c r="J26" s="6">
         <v>10</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="K26" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="8">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6">
+        <v>111</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" si="5"/>
+        <v>111</v>
+      </c>
+      <c r="J27" s="6">
+        <v>5</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="8">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6">
+        <v>54.2</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" si="5"/>
+        <v>54.2</v>
+      </c>
+      <c r="J28" s="6">
+        <v>5</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="8">
+        <v>26</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6">
         <v>1</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H29" s="6">
         <v>275.10000000000002</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I29" s="3">
         <f t="shared" si="1"/>
         <v>275.10000000000002</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J29" s="3">
         <v>10</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="H27" s="5" t="s">
+    <row r="30" spans="1:12">
+      <c r="H30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="3">
-        <f>SUM(I4:I26)</f>
-        <v>2128.3049999999998</v>
+      <c r="I30" s="3">
+        <f>SUM(I4:I29)</f>
+        <v>2656.4249999999997</v>
       </c>
     </row>
   </sheetData>
